--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H2">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I2">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J2">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.007501333333333333</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N2">
-        <v>0.022504</v>
+        <v>0.162898</v>
       </c>
       <c r="O2">
-        <v>0.0001081481021555516</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P2">
-        <v>0.0001081481021555516</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q2">
-        <v>0.1686390424453333</v>
+        <v>1.091562466109111</v>
       </c>
       <c r="R2">
-        <v>1.517751382008</v>
+        <v>9.824062194982</v>
       </c>
       <c r="S2">
-        <v>1.791177266911278E-05</v>
+        <v>7.258390040705598E-05</v>
       </c>
       <c r="T2">
-        <v>1.796413873569672E-05</v>
+        <v>7.286293381991936E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H3">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I3">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J3">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.093981</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N3">
-        <v>0.281943</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O3">
-        <v>0.001354941360026781</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P3">
-        <v>0.001354941360026781</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q3">
-        <v>2.112806503029</v>
+        <v>1.889270564293001</v>
       </c>
       <c r="R3">
-        <v>19.015258527261</v>
+        <v>17.003435078637</v>
       </c>
       <c r="S3">
-        <v>0.0002244089460383782</v>
+        <v>0.000125627832339664</v>
       </c>
       <c r="T3">
-        <v>0.0002250650181104933</v>
+        <v>0.000126110781900266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H4">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I4">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J4">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.63560033333334</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N4">
-        <v>133.906801</v>
+        <v>129.740318</v>
       </c>
       <c r="O4">
-        <v>0.643519658454991</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P4">
-        <v>0.6435196584549912</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q4">
-        <v>1003.462259934137</v>
+        <v>869.3763058469735</v>
       </c>
       <c r="R4">
-        <v>9031.160339407228</v>
+        <v>7824.386752622762</v>
       </c>
       <c r="S4">
-        <v>0.106581415675441</v>
+        <v>0.05780953922388103</v>
       </c>
       <c r="T4">
-        <v>0.1068930123896788</v>
+        <v>0.05803177573824905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H5">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I5">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J5">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>24.62459066666667</v>
+        <v>0.2351745</v>
       </c>
       <c r="N5">
-        <v>73.873772</v>
+        <v>0.470349</v>
       </c>
       <c r="O5">
-        <v>0.3550172520828265</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P5">
-        <v>0.3550172520828265</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q5">
-        <v>553.5905693167828</v>
+        <v>4.7276392070985</v>
       </c>
       <c r="R5">
-        <v>4982.315123851045</v>
+        <v>28.365835242591</v>
       </c>
       <c r="S5">
-        <v>0.05879888954291986</v>
+        <v>0.0003143663363505848</v>
       </c>
       <c r="T5">
-        <v>0.05897079137652096</v>
+        <v>0.0002103832340437897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.50180766666667</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H6">
-        <v>88.50542300000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I6">
-        <v>0.2173444878184117</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J6">
-        <v>0.2179799065528387</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007501333333333333</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N6">
-        <v>0.022504</v>
+        <v>135.878762</v>
       </c>
       <c r="O6">
-        <v>0.0001081481021555516</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P6">
-        <v>0.0001081481021555516</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q6">
-        <v>0.2213028932435556</v>
+        <v>910.509377282551</v>
       </c>
       <c r="R6">
-        <v>1.991726039192</v>
+        <v>8194.584395542957</v>
       </c>
       <c r="S6">
-        <v>2.350539387153163E-05</v>
+        <v>0.06054469992536473</v>
       </c>
       <c r="T6">
-        <v>2.3574113201734E-05</v>
+        <v>0.06077745118502729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J7">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.093981</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N7">
-        <v>0.281943</v>
+        <v>0.162898</v>
       </c>
       <c r="O7">
-        <v>0.001354941360026781</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P7">
-        <v>0.001354941360026781</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q7">
-        <v>2.772609386321</v>
+        <v>1.601928488428222</v>
       </c>
       <c r="R7">
-        <v>24.953484476889</v>
+        <v>14.417356395854</v>
       </c>
       <c r="S7">
-        <v>0.0002944890359190029</v>
+        <v>0.0001065209014356831</v>
       </c>
       <c r="T7">
-        <v>0.000295349991043214</v>
+        <v>0.0001069303984522694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J8">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.63560033333334</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N8">
-        <v>133.906801</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O8">
-        <v>0.643519658454991</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P8">
-        <v>0.6435196584549912</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q8">
-        <v>1316.830896120203</v>
+        <v>2.772609386321001</v>
       </c>
       <c r="R8">
-        <v>11851.47806508182</v>
+        <v>24.95348447688901</v>
       </c>
       <c r="S8">
-        <v>0.1398654505679792</v>
+        <v>0.0001843658148871122</v>
       </c>
       <c r="T8">
-        <v>0.1402743550149337</v>
+        <v>0.0001850745701655526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J9">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.62459066666667</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N9">
-        <v>73.873772</v>
+        <v>129.740318</v>
       </c>
       <c r="O9">
-        <v>0.3550172520828265</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P9">
-        <v>0.3550172520828265</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q9">
-        <v>726.4699377183952</v>
+        <v>1275.857969416057</v>
       </c>
       <c r="R9">
-        <v>6538.229439465556</v>
+        <v>11482.72172474452</v>
       </c>
       <c r="S9">
-        <v>0.07716104282064187</v>
+        <v>0.0848387065888604</v>
       </c>
       <c r="T9">
-        <v>0.07738662743366012</v>
+        <v>0.08516485100531705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.76526900000001</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H10">
-        <v>128.295807</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.3150585073376216</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J10">
-        <v>0.3159795984589672</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.007501333333333333</v>
+        <v>0.2351745</v>
       </c>
       <c r="N10">
-        <v>0.022504</v>
+        <v>0.470349</v>
       </c>
       <c r="O10">
-        <v>0.0001081481021555516</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P10">
-        <v>0.0001081481021555516</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q10">
-        <v>0.3207965378586667</v>
+        <v>6.9380728671045</v>
       </c>
       <c r="R10">
-        <v>2.887168840728001</v>
+        <v>41.628437202627</v>
       </c>
       <c r="S10">
-        <v>3.40729796365247E-05</v>
+        <v>0.0004613500423827068</v>
       </c>
       <c r="T10">
-        <v>3.417259389321056E-05</v>
+        <v>0.0003087490698573736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.76526900000001</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H11">
-        <v>128.295807</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.3150585073376216</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J11">
-        <v>0.3159795984589672</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.093981</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N11">
-        <v>0.281943</v>
+        <v>135.878762</v>
       </c>
       <c r="O11">
-        <v>0.001354941360026781</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P11">
-        <v>0.001354941360026781</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q11">
-        <v>4.019122745889001</v>
+        <v>1336.223034169592</v>
       </c>
       <c r="R11">
-        <v>36.172104713001</v>
+        <v>12026.00730752633</v>
       </c>
       <c r="S11">
-        <v>0.0004268858024200446</v>
+        <v>0.08885270668887675</v>
       </c>
       <c r="T11">
-        <v>0.0004281338268767092</v>
+        <v>0.08919428207750298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H12">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I12">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J12">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>44.63560033333334</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N12">
-        <v>133.906801</v>
+        <v>0.162898</v>
       </c>
       <c r="O12">
-        <v>0.643519658454991</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P12">
-        <v>0.6435196584549912</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q12">
-        <v>1908.85345523149</v>
+        <v>3.354306040199778</v>
       </c>
       <c r="R12">
-        <v>17179.68109708341</v>
+        <v>30.188754361798</v>
       </c>
       <c r="S12">
-        <v>0.2027463430352455</v>
+        <v>0.0002230459759435427</v>
       </c>
       <c r="T12">
-        <v>0.2033390832790598</v>
+        <v>0.0002239034288985912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H13">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I13">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J13">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>24.62459066666667</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N13">
-        <v>73.873772</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O13">
-        <v>0.3550172520828265</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P13">
-        <v>0.3550172520828265</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q13">
-        <v>1053.07724387489</v>
+        <v>5.805615218677001</v>
       </c>
       <c r="R13">
-        <v>9477.695194874006</v>
+        <v>52.25053696809301</v>
       </c>
       <c r="S13">
-        <v>0.1118512055203194</v>
+        <v>0.0003860467998100056</v>
       </c>
       <c r="T13">
-        <v>0.1121782087591374</v>
+        <v>0.0003875308748662078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H14">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I14">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J14">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.007501333333333333</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N14">
-        <v>0.022504</v>
+        <v>129.740318</v>
       </c>
       <c r="O14">
-        <v>0.0001081481021555516</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P14">
-        <v>0.0001081481021555516</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q14">
-        <v>0.008904371467999999</v>
+        <v>2671.541285496691</v>
       </c>
       <c r="R14">
-        <v>0.05342622880799999</v>
+        <v>24043.87156947022</v>
       </c>
       <c r="S14">
-        <v>9.457660289304111E-07</v>
+        <v>0.1776452494661419</v>
       </c>
       <c r="T14">
-        <v>6.323540191162413E-07</v>
+        <v>0.1783281689559946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H15">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I15">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J15">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.093981</v>
+        <v>0.2351745</v>
       </c>
       <c r="N15">
-        <v>0.281943</v>
+        <v>0.470349</v>
       </c>
       <c r="O15">
-        <v>0.001354941360026781</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P15">
-        <v>0.001354941360026781</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q15">
-        <v>0.1115590652685</v>
+        <v>14.5277519524665</v>
       </c>
       <c r="R15">
-        <v>0.669354391611</v>
+        <v>87.166511714799</v>
       </c>
       <c r="S15">
-        <v>1.184909844893027E-05</v>
+        <v>0.0009660289113961135</v>
       </c>
       <c r="T15">
-        <v>7.922493299488555E-06</v>
+        <v>0.0006464950697922839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.1870385</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H16">
-        <v>2.374077</v>
+        <v>185.323051</v>
       </c>
       <c r="I16">
-        <v>0.008745100561913669</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J16">
-        <v>0.005847111567493933</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>44.63560033333334</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N16">
-        <v>133.906801</v>
+        <v>135.878762</v>
       </c>
       <c r="O16">
-        <v>0.643519658454991</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P16">
-        <v>0.6435196584549912</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q16">
-        <v>52.9841760662795</v>
+        <v>2797.94074888254</v>
       </c>
       <c r="R16">
-        <v>317.905056397677</v>
+        <v>25181.46673994286</v>
       </c>
       <c r="S16">
-        <v>0.005627644126757234</v>
+        <v>0.1860502343815785</v>
       </c>
       <c r="T16">
-        <v>0.003762731238861924</v>
+        <v>0.1867654650535648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H17">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I17">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J17">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>24.62459066666667</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N17">
-        <v>73.873772</v>
+        <v>0.162898</v>
       </c>
       <c r="O17">
-        <v>0.3550172520828265</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P17">
-        <v>0.3550172520828265</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q17">
-        <v>29.230337168074</v>
+        <v>0.08128678074166666</v>
       </c>
       <c r="R17">
-        <v>175.382023008444</v>
+        <v>0.48772068445</v>
       </c>
       <c r="S17">
-        <v>0.003104661570678572</v>
+        <v>5.405198310632973E-06</v>
       </c>
       <c r="T17">
-        <v>0.002075825481313405</v>
+        <v>3.61731829953579E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H18">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I18">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J18">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.007501333333333333</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N18">
-        <v>0.022504</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O18">
-        <v>0.0001081481021555516</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P18">
-        <v>0.0001081481021555516</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q18">
-        <v>0.2985697421306666</v>
+        <v>0.1406907317625</v>
       </c>
       <c r="R18">
-        <v>2.687127679176</v>
+        <v>0.8441443905750002</v>
       </c>
       <c r="S18">
-        <v>3.171218994945208E-05</v>
+        <v>9.355288753052787E-06</v>
       </c>
       <c r="T18">
-        <v>3.180490230579408E-05</v>
+        <v>6.260835451178158E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H19">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I19">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J19">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.093981</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N19">
-        <v>0.281943</v>
+        <v>129.740318</v>
       </c>
       <c r="O19">
-        <v>0.001354941360026781</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P19">
-        <v>0.001354941360026781</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q19">
-        <v>3.740652719763</v>
+        <v>64.74095926665834</v>
       </c>
       <c r="R19">
-        <v>33.665874477867</v>
+        <v>388.44575559995</v>
       </c>
       <c r="S19">
-        <v>0.0003973084772004252</v>
+        <v>0.004304977026572363</v>
       </c>
       <c r="T19">
-        <v>0.0003984700306968762</v>
+        <v>0.002881017731887394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H20">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I20">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J20">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>44.63560033333334</v>
+        <v>0.2351745</v>
       </c>
       <c r="N20">
-        <v>133.906801</v>
+        <v>0.470349</v>
       </c>
       <c r="O20">
-        <v>0.643519658454991</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P20">
-        <v>0.6435196584549912</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q20">
-        <v>1776.596118206208</v>
+        <v>0.35205916618125</v>
       </c>
       <c r="R20">
-        <v>15989.36506385587</v>
+        <v>1.408236664725</v>
       </c>
       <c r="S20">
-        <v>0.1886988050495681</v>
+        <v>2.341032075477822E-05</v>
       </c>
       <c r="T20">
-        <v>0.1892504765324569</v>
+        <v>1.044458523044089E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.802223</v>
+        <v>1.4970125</v>
       </c>
       <c r="H21">
-        <v>119.406669</v>
+        <v>2.994025</v>
       </c>
       <c r="I21">
-        <v>0.2932292783449847</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J21">
-        <v>0.2940865504976541</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.62459066666667</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N21">
-        <v>73.873772</v>
+        <v>135.878762</v>
       </c>
       <c r="O21">
-        <v>0.3550172520828265</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P21">
-        <v>0.3550172520828265</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q21">
-        <v>980.1134489983853</v>
+        <v>67.80406839950834</v>
       </c>
       <c r="R21">
-        <v>8821.021040985468</v>
+        <v>406.82441039705</v>
       </c>
       <c r="S21">
-        <v>0.1041014526282667</v>
+        <v>0.00450865974298825</v>
       </c>
       <c r="T21">
-        <v>0.1044057990321946</v>
+        <v>0.003017328219504649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H22">
+        <v>168.730668</v>
+      </c>
+      <c r="I22">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J22">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05429933333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.162898</v>
+      </c>
+      <c r="O22">
+        <v>0.0006106321520641768</v>
+      </c>
+      <c r="P22">
+        <v>0.0006111709387314433</v>
+      </c>
+      <c r="Q22">
+        <v>3.053987595095999</v>
+      </c>
+      <c r="R22">
+        <v>27.485888355864</v>
+      </c>
+      <c r="S22">
+        <v>0.0002030761759672621</v>
+      </c>
+      <c r="T22">
+        <v>0.0002038568592611277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H23">
+        <v>168.730668</v>
+      </c>
+      <c r="I23">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J23">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N23">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.001056878911032857</v>
+      </c>
+      <c r="P23">
+        <v>0.001057811440157395</v>
+      </c>
+      <c r="Q23">
+        <v>5.285825636436001</v>
+      </c>
+      <c r="R23">
+        <v>47.572430727924</v>
+      </c>
+      <c r="S23">
+        <v>0.000351483175243022</v>
+      </c>
+      <c r="T23">
+        <v>0.0003528343777741908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H24">
+        <v>168.730668</v>
+      </c>
+      <c r="I24">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J24">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>43.24677266666666</v>
+      </c>
+      <c r="N24">
+        <v>129.740318</v>
+      </c>
+      <c r="O24">
+        <v>0.4863387493390383</v>
+      </c>
+      <c r="P24">
+        <v>0.486767866661199</v>
+      </c>
+      <c r="Q24">
+        <v>2432.352280296936</v>
+      </c>
+      <c r="R24">
+        <v>21891.17052267242</v>
+      </c>
+      <c r="S24">
+        <v>0.1617402770335826</v>
+      </c>
+      <c r="T24">
+        <v>0.1623620532297508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H25">
+        <v>168.730668</v>
+      </c>
+      <c r="I25">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J25">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.2351745</v>
+      </c>
+      <c r="N25">
+        <v>0.470349</v>
+      </c>
+      <c r="O25">
+        <v>0.002644693815374347</v>
+      </c>
+      <c r="P25">
+        <v>0.001764684893991306</v>
+      </c>
+      <c r="Q25">
+        <v>13.227050160522</v>
+      </c>
+      <c r="R25">
+        <v>79.362300963132</v>
+      </c>
+      <c r="S25">
+        <v>0.0008795382044901635</v>
+      </c>
+      <c r="T25">
+        <v>0.0005886129350674173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>56.24355599999999</v>
+      </c>
+      <c r="H26">
+        <v>168.730668</v>
+      </c>
+      <c r="I26">
+        <v>0.3325671196329652</v>
+      </c>
+      <c r="J26">
+        <v>0.3335512969321748</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>45.29292066666667</v>
+      </c>
+      <c r="N26">
+        <v>135.878762</v>
+      </c>
+      <c r="O26">
+        <v>0.5093490457824903</v>
+      </c>
+      <c r="P26">
+        <v>0.5097984660659209</v>
+      </c>
+      <c r="Q26">
+        <v>2547.434919919224</v>
+      </c>
+      <c r="R26">
+        <v>22926.91427927301</v>
+      </c>
+      <c r="S26">
+        <v>0.1693927450436821</v>
+      </c>
+      <c r="T26">
+        <v>0.1700439395303212</v>
       </c>
     </row>
   </sheetData>
